--- a/document/Test/testForm.xlsx
+++ b/document/Test/testForm.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Students" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t xml:space="preserve">              Desird Result</t>
   </si>
@@ -56,10 +56,6 @@
 </t>
   </si>
   <si>
-    <t>login suceffuly and 
-open Form main</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -70,6 +66,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Login suceffuly</t>
+  </si>
+  <si>
+    <t>show message : invalid 
+username or password</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code : c0905l0960
+name       : ngan ngoc nguyen
+Address  : dong da - ha noi
+Date of birth : 11-8-1988
+Phone number : 1295251047
+Email : ngan@gmail.com
+Sex : mail</t>
+  </si>
+  <si>
+    <t>Input database succeffuly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Input database succeffuly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code : c0903l0960
+name       : null
+Address  : null
+Date of birth : 11-8-1988
+Phone number : 129525abc
+Email : kjakskjd
+Sex : mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_This student code is existed database
+_Invalid phone number
+_invalid email</t>
+  </si>
+  <si>
+    <t>input database not succeffuly</t>
+  </si>
+  <si>
+    <t>not fix</t>
   </si>
 </sst>
 </file>
@@ -413,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,19 +509,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34.5" customHeight="1">
@@ -491,16 +532,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -511,13 +552,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="109.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="114" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/Test/testForm.xlsx
+++ b/document/Test/testForm.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Students" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RegCourse" sheetId="3" r:id="rId3"/>
+    <sheet name="Staff" sheetId="4" r:id="rId4"/>
+    <sheet name="Student attend" sheetId="5" r:id="rId5"/>
+    <sheet name="Course" sheetId="6" r:id="rId6"/>
+    <sheet name="semester" sheetId="7" r:id="rId7"/>
+    <sheet name="Subject" sheetId="8" r:id="rId8"/>
+    <sheet name="Assnmgent" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
   <si>
     <t xml:space="preserve">              Desird Result</t>
   </si>
@@ -100,27 +106,354 @@
 Sex : mail</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Show message :
-_This student code is existed database
+    <t>input database not succeffuly</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>un fixed</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input database succeffuly
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Show message insert data
+ succeffuly (FAIL)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Input database succeffuly
+</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Student id : ngan ngoc nguyen_c0905l090
+Class offer: c0905l
+Note : this is course of ngan ngoc nguyen_c0905l0960</t>
+  </si>
+  <si>
+    <t>Student id :ngan ngoc nguyen_c0905l0960
+Class offer : c0905l
+Note : null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalid note</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code : AS
+name       : ngan ngoc nguyen
+Address  : dong da - ha noi
+Date of birth : 11-8-1988
+Phone number : 1295251047
+Email : ngan@gmail.com
+Sex : mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code : NT
+name       : null
+Address  : null
+Date of birth : 11-8-1988
+Phone number : 129525abc
+Email : kjakskjd
+Sex : mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_This student code is existed database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid Address
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
 _Invalid phone number
-_invalid email</t>
-  </si>
-  <si>
-    <t>input database not succeffuly</t>
-  </si>
-  <si>
-    <t>not fix</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid email
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_This staff code is existed database
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid address
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_Invalid mail</t>
+  </si>
+  <si>
+    <t>class name :null
+Subject : null
+Date : null</t>
+  </si>
+  <si>
+    <t>class name : C09010M
+Subject: javaswing
+Date :Monday 05/09/2011
+Class student : checked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Show message :
+_invalide class name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FAIL)</t>
+    </r>
+  </si>
+  <si>
+    <t>un Fix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Show message :
+_invalide subject name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FAIL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Show message :
+_invalide date 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FAIL)</t>
+    </r>
+  </si>
+  <si>
+    <t>Course name : ACNA
+Code:ACNA
+Description : this is ACNA</t>
+  </si>
+  <si>
+    <t>Name :null
+Code : null
+Description : null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide Course name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_this course code existed database</t>
+  </si>
+  <si>
+    <t>name :null
+Code : DISM
+Description : null</t>
+  </si>
+  <si>
+    <t>name :null
+code : null
+Description: null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide Course code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide description </t>
+  </si>
+  <si>
+    <t>name : hoc ky 1
+Date start:11-8-2011
+Date end:11-9-2011
+Description : this is hoc ky1</t>
+  </si>
+  <si>
+    <t>name : null
+Date start:11-8-2011
+Date end:11-9-2011
+Description :null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide name</t>
+  </si>
+  <si>
+    <t>name : AASP
+Code : AASP
+Description : this is AASP Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_this code existed database </t>
+  </si>
+  <si>
+    <t>name : null
+Code : AASP
+Description :null</t>
+  </si>
+  <si>
+    <t>name : null
+Code : AASP
+Description : null</t>
+  </si>
+  <si>
+    <t>name : null
+Code : null
+Description : null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minute per lession:12
+Number of lession  : 13
+Number of assinmgent : 5
+Class :c09010m
+Staff : d0010_phanthanhhoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minute per lession:null
+Number of lession  : null
+Number of assinmgent : null
+Class :c09010m
+Staff : d0010_phanthanhhoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalide per lession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalid lession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show message :
+_invalid assinmgent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +485,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,7 +796,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -552,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,20 +949,20 @@
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="114" customHeight="1">
@@ -629,19 +970,99 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -652,12 +1073,1033 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="150">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="120">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="120">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/Test/testForm.xlsx
+++ b/document/Test/testForm.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="70">
   <si>
     <t xml:space="preserve">              Desird Result</t>
   </si>
@@ -90,13 +90,6 @@
 Sex : mail</t>
   </si>
   <si>
-    <t>Input database succeffuly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Input database succeffuly</t>
-  </si>
-  <si>
     <t xml:space="preserve"> code : c0903l0960
 name       : null
 Address  : null
@@ -104,9 +97,6 @@
 Phone number : 129525abc
 Email : kjakskjd
 Sex : mail</t>
-  </si>
-  <si>
-    <t>input database not succeffuly</t>
   </si>
   <si>
     <t>Pass</t>
@@ -136,10 +126,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Input database succeffuly
-</t>
-  </si>
-  <si>
     <t>Fix</t>
   </si>
   <si>
@@ -423,6 +409,17 @@
     <t xml:space="preserve">
 Show message :
 _invalid assinmgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+No message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show message : save data succeffuly
+</t>
+  </si>
+  <si>
+    <t>show message : save data succeffuly</t>
   </si>
 </sst>
 </file>
@@ -876,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -962,107 +959,107 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="114" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="105">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="105">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="105">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1073,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1127,42 +1124,42 @@
     </row>
     <row r="4" spans="1:6" ht="90">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1174,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1226,42 +1223,42 @@
     </row>
     <row r="4" spans="1:6" ht="150">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="120">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1282,82 +1279,82 @@
     </row>
     <row r="8" spans="1:6" ht="120">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="120">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="120">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="120">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1367,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,35 +1416,35 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1456,18 +1453,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90">
       <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1476,18 +1473,18 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -1496,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1506,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1558,104 +1555,104 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="60">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1665,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1717,64 +1714,64 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1803,7 +1800,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,104 +1849,104 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="60">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1959,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2011,84 +2008,84 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
